--- a/game_data_final/Jug - Szolnok.xlsx
+++ b/game_data_final/Jug - Szolnok.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
   <si>
     <t>Number of Passes</t>
   </si>
@@ -20,27 +20,78 @@
     <t>comments</t>
   </si>
   <si>
+    <t>Passing Sequence</t>
+  </si>
+  <si>
+    <t>Shooter Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Started in 3-3 but couldn't see initial pass from camera. X 5 was way wide of O5 so I think O6 passed to O5 then O3. While not impossible that it was O6 to O3 I think the former is more likely. </t>
   </si>
   <si>
+    <t>Shooter Position</t>
+  </si>
+  <si>
+    <t>Shooter Hand</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
     <t>Was important to know that they had time to set up in 3-3 because ball was knocked out by goalie.</t>
   </si>
   <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
     <t>Kickout was at attack during after goal. Foul was at half so counting it as backcourt. After rotation ended in 3-3</t>
   </si>
   <si>
+    <t>Skip</t>
+  </si>
+  <si>
     <t>Shooter beat the shot blocker</t>
   </si>
   <si>
+    <t>Lob</t>
+  </si>
+  <si>
+    <t>Shot Position</t>
+  </si>
+  <si>
     <t xml:space="preserve">skip bar down. really too their time between roatations </t>
   </si>
   <si>
+    <t>Shot Location</t>
+  </si>
+  <si>
+    <t>Assisting Player Number</t>
+  </si>
+  <si>
     <t>very nearly went in</t>
   </si>
   <si>
+    <t>Assisting Player Position</t>
+  </si>
+  <si>
+    <t>Assisting Player Hand</t>
+  </si>
+  <si>
+    <t>Rotation Type</t>
+  </si>
+  <si>
     <t>pass skiped into other guys hands. Catcher looked very casual/caught intentional so not counting it as dropped ball. Could have easily been stolen</t>
   </si>
   <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
     <t>all the movement may make numbers confusing. This currently keeps the same numbers that were started with. Goes into 3-3 in middle the rotates out. Dropped ball was right before shot but recovered very quickly</t>
   </si>
   <si>
@@ -59,91 +110,49 @@
     <t>Think we may need to come up with a better numbering system so 3-3 and 4-2 data are closer together to make it easier to read.</t>
   </si>
   <si>
-    <t>Passing Sequence</t>
-  </si>
-  <si>
     <t>Have an idea</t>
   </si>
   <si>
+    <t>Turnover</t>
+  </si>
+  <si>
     <t>Issue start 4-2 1_rotates immediate 3-3. Name idea still works but need to include 1_pocket to type and use 3-3 name convention</t>
   </si>
   <si>
-    <t>Shooter Number</t>
-  </si>
-  <si>
-    <t>Shooter Position</t>
-  </si>
-  <si>
-    <t>Shooter Hand</t>
-  </si>
-  <si>
-    <t>Rebound</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Lob</t>
-  </si>
-  <si>
-    <t>Shot Position</t>
-  </si>
-  <si>
-    <t>Shot Location</t>
-  </si>
-  <si>
-    <t>Assisting Player Number</t>
-  </si>
-  <si>
-    <t>Assisting Player Position</t>
-  </si>
-  <si>
-    <t>Assisting Player Hand</t>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Start Time</t>
   </si>
   <si>
     <t>Other Issue: now can be confusing if 1_in happens after -- maybe 1_return -- return used to go to regula position</t>
   </si>
   <si>
-    <t>Rotation Type</t>
-  </si>
-  <si>
-    <t>Timeout</t>
-  </si>
-  <si>
-    <t>Team</t>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Dropped Ball</t>
   </si>
   <si>
     <t>Return still needs who starts 4-2 -- maybe 4_return_1 and 1_roatate_4</t>
   </si>
   <si>
-    <t>Turnover</t>
-  </si>
-  <si>
-    <t>Quarter</t>
+    <t>Kickout Position</t>
   </si>
   <si>
     <t xml:space="preserve">Other issue: keep track of multiple people moving </t>
   </si>
   <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>End Time</t>
+    <t>End 3-3</t>
   </si>
   <si>
     <t>--&gt; either keep everyone's number same and use movement collumn with it (code python or something)</t>
   </si>
   <si>
-    <t>Dropped Ball</t>
-  </si>
-  <si>
-    <t>Kickout Position</t>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>Link to Play</t>
   </si>
   <si>
     <t>--&gt; or come up with way to switch numbers</t>
@@ -171,12 +180,6 @@
   </si>
   <si>
     <t>maybe look into passes per second as metric --&gt; wonder if other passes per time is useful</t>
-  </si>
-  <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>Link to Play</t>
   </si>
   <si>
     <t>[1,2,4,1,4,6,4,5,6,4,6,1]</t>
@@ -396,9 +399,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
@@ -437,14 +437,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -493,82 +490,82 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="X1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="2">
-        <v>43527.0</v>
-      </c>
       <c r="Z1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -576,7 +573,7 @@
         <v>11.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>9.0</v>
@@ -594,7 +591,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1">
         <v>0.0</v>
@@ -603,10 +600,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M2" s="1">
         <v>5.0</v>
@@ -618,13 +615,13 @@
         <v>0.0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="1">
         <v>0.0</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S2" s="1">
         <v>0.0</v>
@@ -632,10 +629,10 @@
       <c r="T2" s="1">
         <v>1.0</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <v>0.2881944444444444</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <v>0.27361111111111114</v>
       </c>
       <c r="W2" s="1">
@@ -650,8 +647,8 @@
       <c r="Z2" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>61</v>
+      <c r="AA2" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -659,7 +656,7 @@
         <v>3.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1">
         <v>3.0</v>
@@ -677,7 +674,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1">
         <v>0.0</v>
@@ -686,10 +683,10 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" s="1">
         <v>5.0</v>
@@ -701,13 +698,13 @@
         <v>0.0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q3" s="1">
         <v>0.0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S3" s="1">
         <v>0.0</v>
@@ -715,10 +712,10 @@
       <c r="T3" s="1">
         <v>1.0</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <v>0.27361111111111114</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <v>0.26875</v>
       </c>
       <c r="W3" s="1">
@@ -733,8 +730,8 @@
       <c r="Z3" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA3" s="5" t="s">
-        <v>66</v>
+      <c r="AA3" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -742,7 +739,7 @@
         <v>6.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1">
         <v>4.0</v>
@@ -760,7 +757,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1">
         <v>0.0</v>
@@ -769,10 +766,10 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1">
         <v>8.0</v>
@@ -784,13 +781,13 @@
         <v>1.0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="1">
         <v>0.0</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>71</v>
+      <c r="R4" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="S4" s="1">
         <v>0.0</v>
@@ -798,10 +795,10 @@
       <c r="T4" s="1">
         <v>1.0</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <v>0.21180555555555555</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <v>0.19930555555555557</v>
       </c>
       <c r="W4" s="1">
@@ -816,8 +813,8 @@
       <c r="Z4" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA4" s="5" t="s">
-        <v>72</v>
+      <c r="AA4" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +822,7 @@
         <v>7.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1">
         <v>10.0</v>
@@ -843,7 +840,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1">
         <v>0.0</v>
@@ -852,10 +849,10 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M5" s="1">
         <v>4.0</v>
@@ -867,13 +864,13 @@
         <v>0.0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="1">
         <v>0.0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" s="1">
         <v>0.0</v>
@@ -881,10 +878,10 @@
       <c r="T5" s="1">
         <v>1.0</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <v>0.14375</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <v>0.13194444444444445</v>
       </c>
       <c r="W5" s="1">
@@ -899,8 +896,8 @@
       <c r="Z5" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA5" s="5" t="s">
-        <v>76</v>
+      <c r="AA5" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -908,7 +905,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1">
         <v>7.0</v>
@@ -926,7 +923,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1">
         <v>0.0</v>
@@ -935,10 +932,10 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6" s="1">
         <v>10.0</v>
@@ -950,13 +947,13 @@
         <v>1.0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="1">
         <v>0.0</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" s="1">
         <v>0.0</v>
@@ -964,10 +961,10 @@
       <c r="T6" s="1">
         <v>1.0</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <v>0.13194444444444445</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <v>0.1284722222222222</v>
       </c>
       <c r="W6" s="1">
@@ -982,8 +979,8 @@
       <c r="Z6" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA6" s="5" t="s">
-        <v>79</v>
+      <c r="AA6" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -991,7 +988,7 @@
         <v>11.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1">
         <v>6.0</v>
@@ -1009,7 +1006,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1">
         <v>1.0</v>
@@ -1018,10 +1015,10 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M7" s="1">
         <v>3.0</v>
@@ -1033,13 +1030,13 @@
         <v>1.0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="1">
         <v>0.0</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S7" s="1">
         <v>0.0</v>
@@ -1047,10 +1044,10 @@
       <c r="T7" s="1">
         <v>1.0</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <v>0.11805555555555555</v>
       </c>
-      <c r="V7" s="4">
+      <c r="V7" s="3">
         <v>0.10277777777777777</v>
       </c>
       <c r="W7" s="1">
@@ -1065,8 +1062,8 @@
       <c r="Z7" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>82</v>
+      <c r="AA7" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -1074,7 +1071,7 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1">
         <v>8.0</v>
@@ -1092,7 +1089,7 @@
         <v>0.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1">
         <v>0.0</v>
@@ -1101,10 +1098,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M8" s="1">
         <v>3.0</v>
@@ -1116,13 +1113,13 @@
         <v>1.0</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="1">
         <v>0.0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" s="1">
         <v>0.0</v>
@@ -1130,10 +1127,10 @@
       <c r="T8" s="1">
         <v>1.0</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <v>0.020833333333333332</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <v>0.006944444444444444</v>
       </c>
       <c r="W8" s="1">
@@ -1148,8 +1145,8 @@
       <c r="Z8" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>86</v>
+      <c r="AA8" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -1157,7 +1154,7 @@
         <v>1.0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1">
         <v>3.0</v>
@@ -1175,7 +1172,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I9" s="1">
         <v>0.0</v>
@@ -1184,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M9" s="1">
         <v>10.0</v>
@@ -1199,13 +1196,13 @@
         <v>1.0</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="1">
         <v>0.0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" s="1">
         <v>0.0</v>
@@ -1213,10 +1210,10 @@
       <c r="T9" s="1">
         <v>1.0</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <v>0.006944444444444444</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <v>0.002777777777777778</v>
       </c>
       <c r="W9" s="1">
@@ -1231,8 +1228,8 @@
       <c r="Z9" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA9" s="5" t="s">
-        <v>89</v>
+      <c r="AA9" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="10">
@@ -1240,7 +1237,7 @@
         <v>6.0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>3.0</v>
@@ -1258,7 +1255,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I10" s="1">
         <v>1.0</v>
@@ -1267,10 +1264,10 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="1">
         <v>8.0</v>
@@ -1282,13 +1279,13 @@
         <v>1.0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="1">
         <v>1.0</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" s="1">
         <v>0.0</v>
@@ -1296,10 +1293,10 @@
       <c r="T10" s="1">
         <v>2.0</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <v>0.27708333333333335</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <v>0.26458333333333334</v>
       </c>
       <c r="W10" s="1">
@@ -1314,8 +1311,8 @@
       <c r="Z10" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA10" s="5" t="s">
-        <v>92</v>
+      <c r="AA10" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1320,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1">
         <v>11.0</v>
@@ -1341,7 +1338,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1">
         <v>1.0</v>
@@ -1350,10 +1347,10 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="1">
         <v>5.0</v>
@@ -1365,13 +1362,13 @@
         <v>0.0</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="1">
         <v>0.0</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S11" s="1">
         <v>0.0</v>
@@ -1379,10 +1376,10 @@
       <c r="T11" s="1">
         <v>2.0</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <v>0.21458333333333332</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <v>0.2</v>
       </c>
       <c r="W11" s="1">
@@ -1397,8 +1394,8 @@
       <c r="Z11" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>95</v>
+      <c r="AA11" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -1406,7 +1403,7 @@
         <v>7.0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1">
         <v>5.0</v>
@@ -1424,7 +1421,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" s="1">
         <v>0.0</v>
@@ -1433,10 +1430,10 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="1">
         <v>6.0</v>
@@ -1448,13 +1445,13 @@
         <v>0.0</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="1">
         <v>1.0</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S12" s="1">
         <v>0.0</v>
@@ -1462,10 +1459,10 @@
       <c r="T12" s="1">
         <v>2.0</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="3">
         <v>0.13402777777777777</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <v>0.11736111111111111</v>
       </c>
       <c r="W12" s="1">
@@ -1480,8 +1477,8 @@
       <c r="Z12" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA12" s="5" t="s">
-        <v>98</v>
+      <c r="AA12" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -1489,7 +1486,7 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="1">
         <v>6.0</v>
@@ -1507,7 +1504,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I13" s="1">
         <v>1.0</v>
@@ -1516,10 +1513,10 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M13" s="1">
         <v>4.0</v>
@@ -1531,13 +1528,13 @@
         <v>1.0</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="1">
         <v>0.0</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S13" s="1">
         <v>0.0</v>
@@ -1545,10 +1542,10 @@
       <c r="T13" s="1">
         <v>3.0</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <v>0.2965277777777778</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <v>0.29375</v>
       </c>
       <c r="W13" s="1">
@@ -1563,8 +1560,8 @@
       <c r="Z13" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA13" s="5" t="s">
-        <v>102</v>
+      <c r="AA13" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14">
@@ -1572,7 +1569,7 @@
         <v>9.0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1">
         <v>6.0</v>
@@ -1590,7 +1587,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I14" s="1">
         <v>0.0</v>
@@ -1599,10 +1596,10 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M14" s="1">
         <v>4.0</v>
@@ -1614,13 +1611,13 @@
         <v>0.0</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="1">
         <v>1.0</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S14" s="1">
         <v>0.0</v>
@@ -1628,10 +1625,10 @@
       <c r="T14" s="1">
         <v>3.0</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <v>0.1451388888888889</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <v>0.13055555555555556</v>
       </c>
       <c r="W14" s="1">
@@ -1646,8 +1643,8 @@
       <c r="Z14" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA14" s="5" t="s">
-        <v>105</v>
+      <c r="AA14" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1655,7 +1652,7 @@
         <v>13.0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="1">
         <v>3.0</v>
@@ -1673,7 +1670,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I15" s="1">
         <v>1.0</v>
@@ -1682,10 +1679,10 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="1">
         <v>8.0</v>
@@ -1697,13 +1694,13 @@
         <v>1.0</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="1">
         <v>1.0</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" s="1">
         <v>0.0</v>
@@ -1711,10 +1708,10 @@
       <c r="T15" s="1">
         <v>3.0</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <v>0.08125</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <v>0.06527777777777778</v>
       </c>
       <c r="W15" s="1">
@@ -1729,8 +1726,8 @@
       <c r="Z15" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA15" s="5" t="s">
-        <v>108</v>
+      <c r="AA15" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -1738,7 +1735,7 @@
         <v>12.0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1">
         <v>2.0</v>
@@ -1756,7 +1753,7 @@
         <v>1.0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1">
         <v>0.0</v>
@@ -1765,10 +1762,10 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M16" s="1">
         <v>4.0</v>
@@ -1780,13 +1777,13 @@
         <v>0.0</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="1">
         <v>0.0</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S16" s="1">
         <v>0.0</v>
@@ -1794,10 +1791,10 @@
       <c r="T16" s="1">
         <v>4.0</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <v>0.29444444444444445</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <v>0.28125</v>
       </c>
       <c r="W16" s="1">
@@ -1812,8 +1809,8 @@
       <c r="Z16" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA16" s="5" t="s">
-        <v>111</v>
+      <c r="AA16" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17">
@@ -1821,7 +1818,7 @@
         <v>8.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" s="1">
         <v>10.0</v>
@@ -1839,7 +1836,7 @@
         <v>0.0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I17" s="1">
         <v>1.0</v>
@@ -1848,10 +1845,10 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M17" s="1">
         <v>12.0</v>
@@ -1863,13 +1860,13 @@
         <v>1.0</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="1">
         <v>0.0</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" s="1">
         <v>0.0</v>
@@ -1877,10 +1874,10 @@
       <c r="T17" s="1">
         <v>4.0</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>0.23194444444444445</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>0.21944444444444444</v>
       </c>
       <c r="W17" s="1">
@@ -1895,8 +1892,8 @@
       <c r="Z17" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA17" s="5" t="s">
-        <v>114</v>
+      <c r="AA17" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18">
@@ -1904,7 +1901,7 @@
         <v>8.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1">
         <v>7.0</v>
@@ -1922,7 +1919,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="1">
         <v>1.0</v>
@@ -1931,10 +1928,10 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" s="1">
         <v>4.0</v>
@@ -1946,13 +1943,13 @@
         <v>0.0</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="1">
         <v>0.0</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" s="1">
         <v>0.0</v>
@@ -1960,10 +1957,10 @@
       <c r="T18" s="1">
         <v>4.0</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <v>0.08888888888888889</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <v>0.07430555555555556</v>
       </c>
       <c r="W18" s="1">
@@ -1978,8 +1975,8 @@
       <c r="Z18" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA18" s="5" t="s">
-        <v>118</v>
+      <c r="AA18" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="19">
@@ -1987,7 +1984,7 @@
         <v>11.0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1">
         <v>4.0</v>
@@ -2005,7 +2002,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1">
         <v>0.0</v>
@@ -2014,10 +2011,10 @@
         <v>0.0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M19" s="1">
         <v>6.0</v>
@@ -2029,13 +2026,13 @@
         <v>0.0</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="1">
         <v>1.0</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S19" s="1">
         <v>0.0</v>
@@ -2043,10 +2040,10 @@
       <c r="T19" s="1">
         <v>4.0</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="3">
         <v>0.05416666666666667</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <v>0.0375</v>
       </c>
       <c r="W19" s="1">
@@ -2061,8 +2058,8 @@
       <c r="Z19" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA19" s="5" t="s">
-        <v>121</v>
+      <c r="AA19" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -2070,7 +2067,7 @@
         <v>7.0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1">
         <v>2.0</v>
@@ -2088,7 +2085,7 @@
         <v>0.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="1">
         <v>0.0</v>
@@ -2097,10 +2094,10 @@
         <v>0.0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" s="1">
         <v>4.0</v>
@@ -2112,13 +2109,13 @@
         <v>0.0</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="1">
         <v>0.0</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" s="1">
         <v>0.0</v>
@@ -2126,10 +2123,10 @@
       <c r="T20" s="1">
         <v>4.0</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <v>0.030555555555555555</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>0.020833333333333332</v>
       </c>
       <c r="W20" s="1">
@@ -2144,8 +2141,8 @@
       <c r="Z20" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA20" s="5" t="s">
-        <v>124</v>
+      <c r="AA20" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2162,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="1">
         <v>0.0</v>
@@ -2174,10 +2171,10 @@
         <v>0.0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" s="1">
         <v>2.0</v>
@@ -2189,13 +2186,13 @@
         <v>1.0</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="1">
         <v>0.0</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S21" s="1">
         <v>0.0</v>
@@ -2203,10 +2200,10 @@
       <c r="T21" s="1">
         <v>4.0</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="3">
         <v>0.020833333333333332</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="3">
         <v>0.018055555555555554</v>
       </c>
       <c r="W21" s="1">
@@ -2221,8 +2218,8 @@
       <c r="Z21" s="1">
         <v>0.0</v>
       </c>
-      <c r="AA21" s="5" t="s">
-        <v>125</v>
+      <c r="AA21" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2269,140 +2266,140 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/game_data_final/Jug - Szolnok.xlsx
+++ b/game_data_final/Jug - Szolnok.xlsx
@@ -14,90 +14,117 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="127">
   <si>
+    <t>comments</t>
+  </si>
+  <si>
     <t>Number of Passes</t>
   </si>
   <si>
-    <t>comments</t>
-  </si>
-  <si>
     <t>Passing Sequence</t>
   </si>
   <si>
     <t>Shooter Number</t>
   </si>
   <si>
+    <t>Shooter Position</t>
+  </si>
+  <si>
+    <t>Shooter Hand</t>
+  </si>
+  <si>
+    <t>Rebound</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
     <t xml:space="preserve">Started in 3-3 but couldn't see initial pass from camera. X 5 was way wide of O5 so I think O6 passed to O5 then O3. While not impossible that it was O6 to O3 I think the former is more likely. </t>
   </si>
   <si>
-    <t>Shooter Position</t>
-  </si>
-  <si>
-    <t>Shooter Hand</t>
-  </si>
-  <si>
-    <t>Rebound</t>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Lob</t>
   </si>
   <si>
     <t>Was important to know that they had time to set up in 3-3 because ball was knocked out by goalie.</t>
   </si>
   <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Block</t>
+    <t>Shot Position</t>
+  </si>
+  <si>
+    <t>Shot Location</t>
+  </si>
+  <si>
+    <t>Assisting Player Number</t>
+  </si>
+  <si>
+    <t>Assisting Player Position</t>
   </si>
   <si>
     <t>Kickout was at attack during after goal. Foul was at half so counting it as backcourt. After rotation ended in 3-3</t>
   </si>
   <si>
-    <t>Skip</t>
+    <t>Assisting Player Hand</t>
+  </si>
+  <si>
+    <t>Rotation Type</t>
+  </si>
+  <si>
+    <t>Timeout</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
   <si>
     <t>Shooter beat the shot blocker</t>
   </si>
   <si>
-    <t>Lob</t>
-  </si>
-  <si>
-    <t>Shot Position</t>
+    <t>Turnover</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Start Time</t>
   </si>
   <si>
     <t xml:space="preserve">skip bar down. really too their time between roatations </t>
   </si>
   <si>
-    <t>Shot Location</t>
-  </si>
-  <si>
-    <t>Assisting Player Number</t>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>Dropped Ball</t>
+  </si>
+  <si>
+    <t>Kickout Position</t>
   </si>
   <si>
     <t>very nearly went in</t>
   </si>
   <si>
-    <t>Assisting Player Position</t>
-  </si>
-  <si>
-    <t>Assisting Player Hand</t>
-  </si>
-  <si>
-    <t>Rotation Type</t>
-  </si>
-  <si>
     <t>pass skiped into other guys hands. Catcher looked very casual/caught intentional so not counting it as dropped ball. Could have easily been stolen</t>
   </si>
   <si>
-    <t>Timeout</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
     <t>all the movement may make numbers confusing. This currently keeps the same numbers that were started with. Goes into 3-3 in middle the rotates out. Dropped ball was right before shot but recovered very quickly</t>
   </si>
   <si>
+    <t>End 3-3</t>
+  </si>
+  <si>
     <t>can see how dropped ball prevented movement</t>
   </si>
   <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>Link to Play</t>
+  </si>
+  <si>
     <t>rebounded pass happened (didn't look hard enough to be a shot). We probably need a way to identify this. 6 also went from pocket to basically 3-3 at very end. Am not counting 3-3 because posts are still playing as 4-2 and it is more like 5_center working that a 3-3</t>
   </si>
   <si>
@@ -113,48 +140,21 @@
     <t>Have an idea</t>
   </si>
   <si>
-    <t>Turnover</t>
-  </si>
-  <si>
     <t>Issue start 4-2 1_rotates immediate 3-3. Name idea still works but need to include 1_pocket to type and use 3-3 name convention</t>
   </si>
   <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
     <t>Other Issue: now can be confusing if 1_in happens after -- maybe 1_return -- return used to go to regula position</t>
   </si>
   <si>
-    <t>End Time</t>
-  </si>
-  <si>
-    <t>Dropped Ball</t>
-  </si>
-  <si>
     <t>Return still needs who starts 4-2 -- maybe 4_return_1 and 1_roatate_4</t>
   </si>
   <si>
-    <t>Kickout Position</t>
-  </si>
-  <si>
     <t xml:space="preserve">Other issue: keep track of multiple people moving </t>
   </si>
   <si>
-    <t>End 3-3</t>
-  </si>
-  <si>
     <t>--&gt; either keep everyone's number same and use movement collumn with it (code python or something)</t>
   </si>
   <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>Link to Play</t>
-  </si>
-  <si>
     <t>--&gt; or come up with way to switch numbers</t>
   </si>
   <si>
@@ -176,13 +176,13 @@
     <t>--&gt; maybe way to show things at same time (or even 5 second chucks)</t>
   </si>
   <si>
+    <t>[1,2,4,1,4,6,4,5,6,4,6,1]</t>
+  </si>
+  <si>
     <t>--&gt; find way to parse this then it goes to visual</t>
   </si>
   <si>
     <t>maybe look into passes per second as metric --&gt; wonder if other passes per time is useful</t>
-  </si>
-  <si>
-    <t>[1,2,4,1,4,6,4,5,6,4,6,1]</t>
   </si>
   <si>
     <t>goalie</t>
@@ -487,7 +487,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -496,76 +496,76 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -573,7 +573,7 @@
         <v>11.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
         <v>9.0</v>
@@ -2261,100 +2261,100 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -2394,12 +2394,12 @@
     </row>
     <row r="41">
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
